--- a/案出しメモ/クラス図.xlsx
+++ b/案出しメモ/クラス図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Game</t>
     <phoneticPr fontId="1"/>
@@ -78,11 +78,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PlayerGame</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Go Room</t>
+    <t>PlayGame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoRoom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Car</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AccelerateObject</t>
+  </si>
+  <si>
+    <t>DecelerateObject</t>
+  </si>
+  <si>
+    <t>SSAttackTarget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UseItem</t>
+  </si>
+  <si>
+    <t>CurveObjectRight</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CurveObjectLeft</t>
+  </si>
+  <si>
+    <t>InputMouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attac</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideCar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideShot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideWall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideObstacle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LeaveCar</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -115,15 +179,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -131,20 +201,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,78 +530,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H10"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="H6" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
+    <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="2:8" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>12</v>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/案出しメモ/クラス図.xlsx
+++ b/案出しメモ/クラス図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Game</t>
     <phoneticPr fontId="1"/>
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RogIn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>StartPos</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RogOut</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Player</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -142,11 +134,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>LeaveCar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log in</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Log out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Goal</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LeaveCar</t>
+    <t>ChangeStats</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarState</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ChengGoalStats</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -222,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,6 +261,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,15 +545,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H15"/>
+  <dimension ref="B1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -555,7 +570,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
@@ -566,28 +581,28 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -596,75 +611,94 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/案出しメモ/クラス図.xlsx
+++ b/案出しメモ/クラス図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Game</t>
     <phoneticPr fontId="1"/>
@@ -159,6 +159,98 @@
   </si>
   <si>
     <t>ChengGoalStats</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CameraSwichi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarController</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Accelerator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brake</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Curve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetVelocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetRotation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FollowCamera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follow</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FollowObj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Angle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FollowSetAngle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LateUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OnTriggerEnter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JsonNetwork</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TextSetter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SetText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Active</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -191,7 +283,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,13 +355,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,17 +649,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H19"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.09765625" customWidth="1"/>
+    <col min="1" max="1" width="2.796875" customWidth="1"/>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -613,11 +719,11 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>23</v>
+      <c r="H8" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -627,11 +733,11 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>22</v>
+      <c r="H9" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
@@ -641,64 +747,157 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="10" t="s">
         <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="10" t="s">
         <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="10" t="s">
         <v>18</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F14" t="s">
+      <c r="F14" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="H14" s="11" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
+      <c r="F15" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="H15" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="17" spans="2:4" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="20" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="D19" t="s">
+      <c r="D21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>34</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F23" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/案出しメモ/クラス図.xlsx
+++ b/案出しメモ/クラス図.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>Game</t>
     <phoneticPr fontId="1"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Car</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Controller</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -118,26 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CollideCar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CollideShot</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CollideWall</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CollideObstacle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LeaveCar</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Log in</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -251,6 +227,101 @@
   </si>
   <si>
     <t>Active</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarCollider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideCar　車</t>
+    <rPh sb="11" eb="12">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideShot　弾</t>
+    <rPh sb="12" eb="13">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideWall　壁</t>
+    <rPh sb="12" eb="13">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LeaveCar　離れる　</t>
+    <rPh sb="9" eb="10">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CollideObstruct　障害物</t>
+    <rPh sb="16" eb="19">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無色　第２イテレーション</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>黄色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　第３イテレーション</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>緑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>　第１イテレーション</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -332,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,6 +438,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -652,19 +726,29 @@
   <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.796875" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="1" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="2" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="7" t="s">
         <v>0</v>
@@ -703,12 +787,12 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
@@ -717,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="H8" s="9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -731,13 +815,13 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.45">
@@ -745,159 +829,159 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F14" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.45">
       <c r="F15" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B21" s="10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F23" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B25" s="10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B27" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
